--- a/backend/result/더쿠_result.xlsx
+++ b/backend/result/더쿠_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,108 +436,198 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>DF</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>기록</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>것</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>드라마</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>의외</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>아이돌</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>멜론</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>평균</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2위</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>시청률</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>박병호</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>하루</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>우뚝섰다</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>논란</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>요기요</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>올해</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/backend/result/더쿠_result.xlsx
+++ b/backend/result/더쿠_result.xlsx
@@ -456,15 +456,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>것</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>의외</t>
+          <t>방영분</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>슈가맨조</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>멜론</t>
+          <t>미공개</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -518,7 +518,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2위</t>
+          <t>악작극지문1</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -536,7 +536,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>박병호</t>
+          <t>탈락자</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>하루</t>
+          <t>싱어게인2</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>논란</t>
+          <t>1차</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -590,7 +590,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -626,7 +626,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>

--- a/backend/result/더쿠_result.xlsx
+++ b/backend/result/더쿠_result.xlsx
@@ -456,15 +456,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>방영분</t>
+          <t>성우</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>슈가맨조</t>
+          <t>상황</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>미공개</t>
+          <t>근황</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -518,7 +518,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>3위 상승</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>악작극지문1</t>
+          <t>데이터</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -536,7 +536,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>3위 상승</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>탈락자</t>
+          <t>이유</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>싱어게인2</t>
+          <t>연예대상</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>5위 하락</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1차</t>
+          <t>개통</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -590,7 +590,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>2위 상승</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>8위 하락</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -626,7 +626,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/backend/result/더쿠_result.xlsx
+++ b/backend/result/더쿠_result.xlsx
@@ -456,15 +456,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>설강화</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1위 상승</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>성우</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>상황</t>
+          <t>스토브리그</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -510,7 +510,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>근황</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -518,7 +518,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3위 상승</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>데이터</t>
+          <t>파충류</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -536,7 +536,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3위 상승</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -546,11 +546,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>이유</t>
+          <t>영화</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -564,15 +564,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>연예대상</t>
+          <t>이한열</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5위 하락</t>
+          <t>1위 하락</t>
         </is>
       </c>
     </row>
@@ -582,15 +582,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>개통</t>
+          <t>이적</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2위 상승</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -600,15 +600,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>일본</t>
+          <t>이유</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8위 하락</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -618,11 +618,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>유투버한테</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/backend/result/더쿠_result.xlsx
+++ b/backend/result/더쿠_result.xlsx
@@ -460,11 +460,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1위 상승</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -474,11 +474,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>인스타</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>스토브리그</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -510,7 +510,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>파충류</t>
+          <t>부산</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -546,11 +546,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>5층</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -564,15 +564,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>이한열</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1위 하락</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -582,11 +582,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>이적</t>
+          <t>뇌절</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -600,11 +600,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>이유</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -618,11 +618,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>유투버한테</t>
+          <t>진행</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
